--- a/oldcatv/evidence.xlsx
+++ b/oldcatv/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A041F0-FBFF-B542-AD14-F1D79E778D4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F052BB4-6B4C-6044-989A-5FD7734C63AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="7440" windowWidth="22500" windowHeight="11320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="4920" windowWidth="22500" windowHeight="11320" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="46">
   <si>
     <t>TeamName</t>
   </si>
@@ -76,33 +76,15 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
     <t>nft id</t>
   </si>
   <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
     <t>ibc class on chain</t>
   </si>
   <si>
@@ -143,6 +125,63 @@
   </si>
   <si>
     <t>omniflix19705lg3d7p3gyzt77hq4jhdj0sf9594cts93xf</t>
+  </si>
+  <si>
+    <t>64884A468F28C6030E8A1D82FBA8AE9AA4945775C8C6F2A649C2171B50465F3D</t>
+  </si>
+  <si>
+    <t>ocv1</t>
+  </si>
+  <si>
+    <t>6B66DFD0710F02555569E56D2E81E61BBBDF9412B4056BC1620895D0EE700F80</t>
+  </si>
+  <si>
+    <t>ocvnft01</t>
+  </si>
+  <si>
+    <t>E07D877F280EAA906E0F85F9C3620A96BFBE5768B0C20E65B314FDEBFC8C69DB</t>
+  </si>
+  <si>
+    <t>25065EF966D0879A52692F2608E2B02633E9876FFD799F96EE39E44A68DE0054</t>
+  </si>
+  <si>
+    <t>CB329EDB1C8B64FF25423769F70D3E1ED4BE8B99F04F046589FE5B8ED59844E1</t>
+  </si>
+  <si>
+    <t>ocvnft02</t>
+  </si>
+  <si>
+    <t>ocvnft03</t>
+  </si>
+  <si>
+    <t>ocvnft04</t>
+  </si>
+  <si>
+    <t>81A029465401785FEAECFD2995AAD8FC9794B896C6FB704481153DCFD8CB77B0</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>CAC8F139415CD977BFCA2DBB613B559EE553C74B8535C119D93F0492CC2EF4AD</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>wasm.juno1stv6sk0mvku34fj2mqrlyru6683866n306mfv52tlugtl322zmks26kg7a/channel-89/ocv1</t>
+  </si>
+  <si>
+    <t>ibc/F4788C5394F4CB878995DDC93DE4EF75C3BE038560C5649788D78134AB625BA9</t>
+  </si>
+  <si>
+    <t>2850D0D27C7200C1C3C6778A05DEA19982441FFE645239EB50D65BCF55D8815A</t>
+  </si>
+  <si>
+    <t>juno1vcxs4746nnfx9hwp2agkx0dg4a5hfy05dnq5ph3rgw84n4rlykpqkj70a0</t>
+  </si>
+  <si>
+    <t>A01AF11CE35EB7405DB13B767F89D79D834DCC5816EF38C918CF69E97FCD832B</t>
   </si>
 </sst>
 </file>
@@ -567,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -610,28 +649,28 @@
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -659,15 +698,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -692,15 +731,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -725,15 +764,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -758,15 +797,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -791,25 +830,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -834,25 +873,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -877,25 +916,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -920,25 +959,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -963,25 +1002,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1006,25 +1045,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1037,11 +1076,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -1054,10 +1096,10 @@
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1082,25 +1124,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1125,25 +1167,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1167,12 +1209,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1202,12 +1244,12 @@
     </row>
     <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1237,12 +1279,12 @@
     </row>
     <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1272,12 +1314,12 @@
     </row>
     <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1292,13 +1334,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="94.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1310,18 +1355,51 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1334,12 +1412,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -1350,24 +1432,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1380,11 +1462,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1396,24 +1481,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1442,24 +1529,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1490,24 +1579,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1532,15 +1621,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1565,17 +1654,17 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/oldcatv/evidence.xlsx
+++ b/oldcatv/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F052BB4-6B4C-6044-989A-5FD7734C63AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB156AF-14C6-C84C-A137-4D7292851DDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="4920" windowWidth="22500" windowHeight="11320" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="4920" windowWidth="22500" windowHeight="11320" tabRatio="500" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>TeamName</t>
   </si>
@@ -82,21 +82,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
   </si>
   <si>
@@ -182,13 +167,166 @@
   </si>
   <si>
     <t>A01AF11CE35EB7405DB13B767F89D79D834DCC5816EF38C918CF69E97FCD832B</t>
+  </si>
+  <si>
+    <t>ibc/06729E90504C6FB0BB9340C8B33F579C569BDD7D39BF63E040344A7E8AE686CF</t>
+  </si>
+  <si>
+    <t>ocvnftA08</t>
+  </si>
+  <si>
+    <t>96DF3A0CD2F1C31F651E876E502FDAD675E912B1644DEE6DAEA360CF515359DB</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>4EAA94187863AE708494FFB03AF7E5FD6AE4F16E62322C9303B5B68A629BB77C</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>9630FC69ECC2923E4B9CC45C3CF40EDCBCF6709C25A00484CED8274788CEA85C</t>
+  </si>
+  <si>
+    <t>D53A7A705DF058F2CDA663625FB8496153C48E56AF4F2B0BEA3FCEA0B70CEA2E</t>
+  </si>
+  <si>
+    <t>ibc/5E0871D29F46EF11FE4CCB6FF8B244927E75BE362EB33229488F3D28959EE012</t>
+  </si>
+  <si>
+    <t>ocvnftA10</t>
+  </si>
+  <si>
+    <t>ocvnftA07</t>
+  </si>
+  <si>
+    <t>ibc/537B561423B75099E6828A92D503C44A33ABAE006095DEA87626BF308B9BF621</t>
+  </si>
+  <si>
+    <t>ocvnftA09</t>
+  </si>
+  <si>
+    <t>ibc/4659AA17A1D050D5DA5794969F93D4C1C3EA3BBD79D9580D4878D57507EFFC49</t>
+  </si>
+  <si>
+    <t>ibc/1166DB8CFEFEDFEE2C567D32006DEAB97F736D3342F713D4D756B99D8D60D647</t>
+  </si>
+  <si>
+    <t>ocvnftA11</t>
+  </si>
+  <si>
+    <t>ibc/77529F3867C721883A8F01B23FA8990139058F60EC9CAA9011C29A1D22FC3E5E</t>
+  </si>
+  <si>
+    <t>ocvnftA12</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>DECB3230DC9C26683F4306B6B599581B8BAFCC3209BA071786DB5D49F034FA64</t>
+  </si>
+  <si>
+    <t>8CAB68CFFBC5470295D0355A60D99FC4804CEC242F91A2C2A08E8D2CA5C2D0AA</t>
+  </si>
+  <si>
+    <t>4F00DD0F871EB200526A7E6276053333EBE34C547E1E2690AEAE2D66761724EC</t>
+  </si>
+  <si>
+    <t>8B9CAF91B007C4AC11D47F111A80B726F8770E8B44A9E8E7F0D231ED3567FFED</t>
+  </si>
+  <si>
+    <t>371EEC1E074E154C058B70069287F32A337D5A75FDE3EAFA98ADA703E0D28BBD</t>
+  </si>
+  <si>
+    <t>1AE917A2AD1216A4E35B219D87CB649858C1469E47168B416332C97B97432ACD</t>
+  </si>
+  <si>
+    <t>CC830A1F88EEF294E179E57CE5D85FCE5F647A27C514C21FA89AB6B547FB8179</t>
+  </si>
+  <si>
+    <t>8F5BC4228F4AA0FCBC0385A90EDDC13EB3548AA176AED0155B379B744A052D02</t>
+  </si>
+  <si>
+    <t>9B943BA92CA5B9688E0C6892BE0EAE65887323B6B3831F472E554812C9BA5849</t>
+  </si>
+  <si>
+    <t>E0CB5D634E31580C06E17FDD214FC554D49AAE2688F25224C948879AF73ED522</t>
+  </si>
+  <si>
+    <t>7F08FF7ED13D0B6611F2083B7488180281DBCA723E9E2DE360142A7D70100F82</t>
+  </si>
+  <si>
+    <t>8ACF3E70C3D2D99F419A2D8D80D87EBEE805DA9C46A51AC514FA567555F1CB3A</t>
+  </si>
+  <si>
+    <t>6446EC32B82D4894905B6788270509195C4F7E1B91ADF354B03F40C3B5FB9BFE</t>
+  </si>
+  <si>
+    <t>A2F6BD6D63F6CAC7BC7B1601F4F937357B8D51AFA4244CB1BF41D37A3BAD26EE</t>
+  </si>
+  <si>
+    <t>72EFB804DC40576836584676105B3D4B08E70E7716336B67EC6902FDC0885A80</t>
+  </si>
+  <si>
+    <t>CD901CCCC165F215EF74011D55884485A2BB424C375345524F328954103D0AB3</t>
+  </si>
+  <si>
+    <t>A0BCEEB5574C39F45CDB98BEA1F2CC9DD194774BEA11C2DD367D2D617C9CB3EF</t>
+  </si>
+  <si>
+    <t>C38555E0E0ED2509C334A0A5374FE620B5CE58B8193D609AD3EBCD9CA7267DA4</t>
+  </si>
+  <si>
+    <t>2A7CE2A446D14C859DA4AFE5F529B7E64CB69796DEC7C157B599143CBF58390F</t>
+  </si>
+  <si>
+    <t>36B55B92B2ABD77D1EC044B68268E94DF17A8FD4B02B66A28ED3C61366FC2DCD</t>
+  </si>
+  <si>
+    <t>BF7DE246CB45CBCAF43BF9B144CA335B3E157EB1E0372E6523C74F741049C357</t>
+  </si>
+  <si>
+    <t>1E4F2D5F5F797B1E8E07DDD1708D4B37F6DB87FC08FA87CAD4D40C401C58CE0F</t>
+  </si>
+  <si>
+    <t>F6D21401E0B2F1055EA57491FDA54B7E2F74261BCEDBB5A8218821DD3B764365</t>
+  </si>
+  <si>
+    <t>B6346EE023FE1D916A2B8A54D17C3C529567780B3554637CA58C5C6D70D02C8E</t>
+  </si>
+  <si>
+    <t>283954156458FE8044EE07443338555C18B8A135BF0CE18A6811AD9CB54036CA</t>
+  </si>
+  <si>
+    <t>31F1DE9A7F48AD25751721F5EDAADA8AA8B507A7D5FD9E21E1CB922DF892387E</t>
+  </si>
+  <si>
+    <t>0E0A2D10ACC17831AA94619653CF7304F6F4F6B3D3F4FD913C7416B45B520A9E</t>
+  </si>
+  <si>
+    <t>195E4467D5E662D3620CA935E98D3DC302377EC8F690AC13176D2DA9E89080E2</t>
+  </si>
+  <si>
+    <t>BC78D60AC2950BBAFB2A593570A097B3694FA3962477E03C40796E0387F801C6</t>
+  </si>
+  <si>
+    <t>02420C32C9140520F83D6ACA73083789289FABB2F30643BEF8706A38D316C27C</t>
+  </si>
+  <si>
+    <t>34A06314C358031E793F20546F5C89C98A4573F00892CA3D834755E74D4ACD1F</t>
+  </si>
+  <si>
+    <t>C6E9DD228AC1FA8B815C771DD0824872C443A17359BD8971C60D89B86E564B4E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -199,20 +337,33 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -250,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -260,6 +411,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -649,28 +803,28 @@
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -686,11 +840,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="73.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -703,10 +859,10 @@
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -719,11 +875,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -735,11 +893,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
+      <c r="A2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -752,11 +910,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="81.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -769,10 +929,10 @@
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -785,11 +945,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -802,10 +964,10 @@
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -816,13 +978,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="73.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -835,20 +999,34 @@
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -859,13 +1037,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="73.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -877,21 +1057,94 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="78" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -900,15 +1153,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="69.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -921,20 +1176,34 @@
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>70</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -943,15 +1212,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="89.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -964,20 +1235,34 @@
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>73</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>74</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -986,15 +1271,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -1007,63 +1294,34 @@
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>77</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1096,10 +1354,10 @@
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1110,13 +1368,15 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="71.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -1128,65 +1388,133 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="79.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>89</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1209,12 +1537,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1244,12 +1572,12 @@
     </row>
     <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1279,12 +1607,12 @@
     </row>
     <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1314,12 +1642,12 @@
     </row>
     <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1360,46 +1688,46 @@
     </row>
     <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1440,16 +1768,16 @@
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1489,16 +1817,16 @@
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1537,16 +1865,16 @@
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +1887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1587,16 +1915,16 @@
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1609,11 +1937,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="79.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -1626,10 +1956,10 @@
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1642,11 +1972,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -1659,10 +1991,10 @@
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/oldcatv/evidence.xlsx
+++ b/oldcatv/evidence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Documents/Oldcat - validator/Game Of NFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB156AF-14C6-C84C-A137-4D7292851DDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AF9296-4715-674C-B783-656E3A20C770}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="4920" windowWidth="22500" windowHeight="11320" tabRatio="500" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="4920" windowWidth="22500" windowHeight="11320" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -981,7 +981,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1098,7 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1740,7 +1740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1777,7 +1777,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/oldcatv/evidence.xlsx
+++ b/oldcatv/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Documents/Oldcat - validator/Game Of NFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AF9296-4715-674C-B783-656E3A20C770}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F796A6D9-8576-AD4B-81F9-D789BCC68099}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="4920" windowWidth="22500" windowHeight="11320" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="4920" windowWidth="22500" windowHeight="11320" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="96">
   <si>
     <t>TeamName</t>
   </si>
@@ -320,13 +320,25 @@
   </si>
   <si>
     <t>C6E9DD228AC1FA8B815C771DD0824872C443A17359BD8971C60D89B86E564B4E</t>
+  </si>
+  <si>
+    <t>371632A225C0A7C96A16AA3F526AE62FC41E72991A50C8EBD78F62673E1B7518</t>
+  </si>
+  <si>
+    <t>F213E946ABB629F358ED70503FE7A8147C72CF5C08D0B2199F0B06AE26183F0C</t>
+  </si>
+  <si>
+    <t>B7FE90DC1EE06EE981FA23307B2A3D2FBE85B19CE6EE7B604CB02B4E3BA9A7E2</t>
+  </si>
+  <si>
+    <t>38B2623A3858AC388FDA4EE09EEB7B2F4A8215FC9881A0DAD7F059699285ADEA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -365,6 +377,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -401,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -414,6 +432,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1526,7 +1545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1535,14 +1556,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
+    <row r="2" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +1581,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1571,13 +1592,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+      <c r="A2" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1790,7 +1811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/oldcatv/evidence.xlsx
+++ b/oldcatv/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Documents/Oldcat - validator/Game Of NFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F796A6D9-8576-AD4B-81F9-D789BCC68099}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CDFB31-5B1E-4D49-9054-B84D38ECD4A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="4920" windowWidth="22500" windowHeight="11320" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="4920" windowWidth="22500" windowHeight="11320" tabRatio="500" firstSheet="14" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
   <si>
     <t>TeamName</t>
   </si>
@@ -82,12 +83,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>Oldcat</t>
   </si>
   <si>
@@ -332,24 +327,36 @@
   </si>
   <si>
     <t>38B2623A3858AC388FDA4EE09EEB7B2F4A8215FC9881A0DAD7F059699285ADEA</t>
+  </si>
+  <si>
+    <t>6AB1A3512F7593450179B70CCE6EC5A63968041EAD08F17AE25DD83071D8F6D7</t>
+  </si>
+  <si>
+    <t>794D62D1DB4B9FCD509EB7F4E6B99F50E221453928630470F830572511F0583D</t>
+  </si>
+  <si>
+    <t>2FB41A652A2B737E13A96E6F0FC45506597E66A8A4FEC1739F1A90F80F686D5F</t>
+  </si>
+  <si>
+    <t>04272644DD043257EE8092E8D2837249E17FA42AF9D19D715FD47BE4839DFDAE</t>
+  </si>
+  <si>
+    <t>E32C8CE5D42D691D19AC8397AB05C5C85D981C2D54E4CA18E2C4C89AACAB4053</t>
+  </si>
+  <si>
+    <t>1C5AF257C28D95C03E0D26ED07E293CA2BFC6F508CD5293E009AAAA6B4B2E837</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -415,24 +422,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -821,29 +827,29 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -877,11 +883,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>53</v>
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -912,11 +918,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>50</v>
+      <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -947,11 +953,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>56</v>
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -982,11 +988,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1017,35 +1023,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>59</v>
+      <c r="B5" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1076,35 +1082,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>35</v>
+      <c r="B5" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1135,35 +1141,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>33</v>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1194,35 +1200,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>33</v>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1253,35 +1259,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>59</v>
+      <c r="B5" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1312,35 +1318,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1372,11 +1378,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1407,55 +1413,55 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>59</v>
+      <c r="B7" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1485,55 +1491,55 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>59</v>
+      <c r="A6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>35</v>
+      <c r="A7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1557,13 +1563,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>92</v>
+      <c r="A2" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>93</v>
+      <c r="A3" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1592,13 +1598,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>95</v>
+      <c r="A2" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>94</v>
+      <c r="A3" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1616,7 +1622,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1628,12 +1634,12 @@
     </row>
     <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
+      <c r="A3" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1650,9 +1656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1663,12 +1667,12 @@
     </row>
     <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
+      <c r="A3" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1678,6 +1682,36 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46A01C9-4645-8C4E-AC12-45E371A32098}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1708,47 +1742,47 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1788,17 +1822,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>44</v>
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1811,7 +1845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1837,17 +1871,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1885,17 +1919,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1935,17 +1969,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1976,11 +2010,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>51</v>
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2011,11 +2045,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>42</v>
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
